--- a/docs/Test cases.xlsx
+++ b/docs/Test cases.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Capstone project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="362">
   <si>
     <t>ID</t>
   </si>
@@ -66,12 +66,6 @@
   </si>
   <si>
     <t>Both login and password fields are not empty. Pressed login button.</t>
-  </si>
-  <si>
-    <t>Password is incorrect</t>
-  </si>
-  <si>
-    <t>username="Sergio", password="12345"</t>
   </si>
   <si>
     <t>Empty input fields</t>
@@ -158,12 +152,1090 @@
   <si>
     <t>Both login and password fields are not empty and of valid length. Pressed login button.</t>
   </si>
+  <si>
+    <t>username="Se", password="12345"</t>
+  </si>
+  <si>
+    <t>username="Brahm", password="12345"</t>
+  </si>
+  <si>
+    <t>username="", password=""</t>
+  </si>
+  <si>
+    <t>Password is invalid.</t>
+  </si>
+  <si>
+    <t>All fields in the signup form are empty.</t>
+  </si>
+  <si>
+    <t>Password contains special characters. Rest of the entries are valid. Press sign up button.</t>
+  </si>
+  <si>
+    <t>All entries on signup form are valid &amp; click signup button.</t>
+  </si>
+  <si>
+    <t>username="Brahmpreet", password="#$"</t>
+  </si>
+  <si>
+    <t>username="Brahmpreet", password="1"</t>
+  </si>
+  <si>
+    <t>username="Brahmpreet", password="12345"</t>
+  </si>
+  <si>
+    <t>Create account 
+(Registration)</t>
+  </si>
+  <si>
+    <t>Create account
+(Registration)</t>
+  </si>
+  <si>
+    <t>firstname="", lastname="", email="", username="", password="",
+confirm password=""</t>
+  </si>
+  <si>
+    <t>firstname="Brahm", lastname="singh", email="brahm.singh@gmail.com", username="Brahm", password="12345",
+confirm password="12345"</t>
+  </si>
+  <si>
+    <t>firstname="Brahm", lastname="singh", email="brahm.singh@gmail.com", username="Brahmpreet", password="12345",
+confirm password="12345"</t>
+  </si>
+  <si>
+    <t>firstname="Brahm", lastname="singh", email="brahm.singh@gmail.com", username="Brahmpreet", password="#$%",
+confirm password="#$%"</t>
+  </si>
+  <si>
+    <t>firstname="Se", lastname="singh", email="brahm.singh@gmail.com", username="Se", password="12345",
+confirm password="12345"</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>firstname="Brahm", lastname="singh", email="brahm.singh@gmail.com", username="Brahmpreet", password="12",
+confirm password="12"</t>
+  </si>
+  <si>
+    <t>Password is too short</t>
+  </si>
+  <si>
+    <t>Both username and password field are empty.</t>
+  </si>
+  <si>
+    <t>Username and password fields are not empty (Password fields are same)</t>
+  </si>
+  <si>
+    <t>username="Brahmpreet", password="abcd123",
+confirmed password="abcd456"</t>
+  </si>
+  <si>
+    <t>Username and password fields are not empty (Password fields are short but same)</t>
+  </si>
+  <si>
+    <t>username="Brahmpreet", password="123456",
+confirmed password="123456"</t>
+  </si>
+  <si>
+    <t>Input valid username and password fields</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>Create Category</t>
+  </si>
+  <si>
+    <t>Remove Category</t>
+  </si>
+  <si>
+    <t>Rename Category</t>
+  </si>
+  <si>
+    <t>View Categories</t>
+  </si>
+  <si>
+    <t>Assign a category to word</t>
+  </si>
+  <si>
+    <t>Category name="Black"</t>
+  </si>
+  <si>
+    <t>Category name=""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A popup appears. On 
+clicking Delete, the category gets deleted.  </t>
+  </si>
+  <si>
+    <t>Swipe left or right the created category. Click 'Delete' in the toast that appears on screen.</t>
+  </si>
+  <si>
+    <t>Category name="Red"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A popup appears. On 
+clicking Rename, the category gets renamed.  </t>
+  </si>
+  <si>
+    <t>A Category is not created</t>
+  </si>
+  <si>
+    <t>Click 'Categories' section. Click '+' button. Leave 'Category name' section empty &amp; click Cancel.</t>
+  </si>
+  <si>
+    <t>Click 'Categories' section. Click '+' button. Leave 'Category name' section empty &amp; click create.</t>
+  </si>
+  <si>
+    <t>Click 'Categories' section. Click '+' button. Input 'Category name' &amp; click create.</t>
+  </si>
+  <si>
+    <t>Category name="Green"</t>
+  </si>
+  <si>
+    <t>Category name="Blue"</t>
+  </si>
+  <si>
+    <t>Word gets assigned to
+ that category.</t>
+  </si>
+  <si>
+    <t>Word gets assigned to
+that category.</t>
+  </si>
+  <si>
+    <t>Assign word to category 'Black'</t>
+  </si>
+  <si>
+    <t>Change category of the word</t>
+  </si>
+  <si>
+    <t>Long press the searched word already assigned to a category. Change to other category. Press select.</t>
+  </si>
+  <si>
+    <t>Long press the searched word already assigned to a category. Assign multiple category to it. Press select.</t>
+  </si>
+  <si>
+    <t>Assign word to category 'Red'</t>
+  </si>
+  <si>
+    <t>Assign word to category 'Red' &amp; 'Black'</t>
+  </si>
+  <si>
+    <t>Word gets assigned to
+multiple category.</t>
+  </si>
+  <si>
+    <t>Remove word from all categories</t>
+  </si>
+  <si>
+    <t>Long press the searched word already assigned to a category. Deselect all the categories assigned to that word. Click select.</t>
+  </si>
+  <si>
+    <t>Deselect all categories.</t>
+  </si>
+  <si>
+    <t>Word not assigned to any category.</t>
+  </si>
+  <si>
+    <t>Search multiple words in vocubalary section. Click 'Filter' button.</t>
+  </si>
+  <si>
+    <t>Words sorted in 
+ascending order (A-Z)</t>
+  </si>
+  <si>
+    <t>Words sorted in 
+ascending order (Z-A)</t>
+  </si>
+  <si>
+    <t>Words sorted in 
+ascending order (newer)</t>
+  </si>
+  <si>
+    <t>Words sorted in 
+ascending order (older)</t>
+  </si>
+  <si>
+    <t>Search multiple words in vocubalary section. Click 'Sort' button.</t>
+  </si>
+  <si>
+    <t>Sort words list
+(older)</t>
+  </si>
+  <si>
+    <t>Sort words list
+(newer)</t>
+  </si>
+  <si>
+    <t>Sort words list
+(Z-A)</t>
+  </si>
+  <si>
+    <t>Sort words list
+(A-Z)</t>
+  </si>
+  <si>
+    <t>Filter word list by category</t>
+  </si>
+  <si>
+    <t>Sort = A-Z</t>
+  </si>
+  <si>
+    <t>Sort = Z-A</t>
+  </si>
+  <si>
+    <t>Sort = newer</t>
+  </si>
+  <si>
+    <t>Sort = older</t>
+  </si>
+  <si>
+    <t>Words filteres as per selected category</t>
+  </si>
+  <si>
+    <t>Select category to filter words with.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Categories populated in the filter list. </t>
+  </si>
+  <si>
+    <t>Splash screen</t>
+  </si>
+  <si>
+    <t>About page</t>
+  </si>
+  <si>
+    <t>Legal page</t>
+  </si>
+  <si>
+    <t>About page loads.</t>
+  </si>
+  <si>
+    <t>Legal page loads.</t>
+  </si>
+  <si>
+    <t>Splash screen loads.</t>
+  </si>
+  <si>
+    <t>Click Help (?) icon</t>
+  </si>
+  <si>
+    <t>Search a word</t>
+  </si>
+  <si>
+    <t>Click on Search term input filed. Input text to be searched. Click search button.</t>
+  </si>
+  <si>
+    <t>Search term = "Theory"</t>
+  </si>
+  <si>
+    <t>Search card loads</t>
+  </si>
+  <si>
+    <t>Recent search words populated</t>
+  </si>
+  <si>
+    <t>Search term = "Practical"</t>
+  </si>
+  <si>
+    <t>Recent words get 
+populated in search history.</t>
+  </si>
+  <si>
+    <t>Swipe left or right on the words from recent search history</t>
+  </si>
+  <si>
+    <t>Copy to clipboard</t>
+  </si>
+  <si>
+    <t>Click the 'Copy to clipboard' button</t>
+  </si>
+  <si>
+    <t>A toast appears 
+confirming that all words in the search history list have been copied.</t>
+  </si>
+  <si>
+    <t>Search term=""</t>
+  </si>
+  <si>
+    <t>Press the search button with no 
+input in search term</t>
+  </si>
+  <si>
+    <t>Click on search button</t>
+  </si>
+  <si>
+    <t>A toast appears with 
+error</t>
+  </si>
+  <si>
+    <t>Click on any word from the search list (History)</t>
+  </si>
+  <si>
+    <t>A card with word 
+definition appears</t>
+  </si>
+  <si>
+    <t>Clicking searched words</t>
+  </si>
+  <si>
+    <t>No repetition of words on 
+searching same word</t>
+  </si>
+  <si>
+    <t>Search a word that is already in the 'search list'</t>
+  </si>
+  <si>
+    <t>Search term="Theory"</t>
+  </si>
+  <si>
+    <t>A card with word 
+definition appears &amp; the word doesn’t get populated again.</t>
+  </si>
+  <si>
+    <t>No category with same name</t>
+  </si>
+  <si>
+    <t>Create a new category with already existing name</t>
+  </si>
+  <si>
+    <t>A toast appears saying 
+Category already exists.</t>
+  </si>
+  <si>
+    <t>Create a new category with already existing name with Caps ON</t>
+  </si>
+  <si>
+    <t>Category name="BLACK"</t>
+  </si>
+  <si>
+    <t>Change name and surname</t>
+  </si>
+  <si>
+    <t>Change email</t>
+  </si>
+  <si>
+    <t>Change password</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>Name and surname 
+updated.</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change email'. Input info in the fields in form. 
+Password input is incorrect.</t>
+  </si>
+  <si>
+    <t>New email="brahmpreet.official@gmail.com", Current password="12345"</t>
+  </si>
+  <si>
+    <t>New email="brahmpreet.official@gmail.com", Current password="12"</t>
+  </si>
+  <si>
+    <t>Email not updated. 
+Toast with error.</t>
+  </si>
+  <si>
+    <t>Current password="12345", New password="56789",
+ Repeat Password="56789"</t>
+  </si>
+  <si>
+    <t>Password changed.</t>
+  </si>
+  <si>
+    <t>Logged out of app session.</t>
+  </si>
+  <si>
+    <t>Account deleted.</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Logout'.</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Delete account'. Input right password. Click delete account.</t>
+  </si>
+  <si>
+    <t>Quizzes</t>
+  </si>
+  <si>
+    <t>Quiz starts</t>
+  </si>
+  <si>
+    <t>Start a Quiz with existing categories</t>
+  </si>
+  <si>
+    <t>Quiz started</t>
+  </si>
+  <si>
+    <t>Answer all questions right</t>
+  </si>
+  <si>
+    <t>Final score calculated 
+should be right</t>
+  </si>
+  <si>
+    <t>Final score calculated is 
+right</t>
+  </si>
+  <si>
+    <t>Score calculation(All answers right)</t>
+  </si>
+  <si>
+    <t>Score calculation(Few answers right)</t>
+  </si>
+  <si>
+    <t>Answer few questions wrong</t>
+  </si>
+  <si>
+    <t>Cancel starting the quiz</t>
+  </si>
+  <si>
+    <t>"Start the quiz" clicked</t>
+  </si>
+  <si>
+    <t>Should get back to "Quizzes
+ tab"</t>
+  </si>
+  <si>
+    <t>Got back to quizzes tab</t>
+  </si>
+  <si>
+    <t>Should load animation 
+telling how to use app</t>
+  </si>
+  <si>
+    <t>Loads animation 
+telling how to use app</t>
+  </si>
+  <si>
+    <t>Help section</t>
+  </si>
+  <si>
+    <t>Animation loads</t>
+  </si>
+  <si>
+    <t>Send feedback</t>
+  </si>
+  <si>
+    <t>Option to send feedback
+ loads</t>
+  </si>
+  <si>
+    <t>Option to send feedback 
+loads</t>
+  </si>
+  <si>
+    <t>Click Privacy policy</t>
+  </si>
+  <si>
+    <t>Pirivacy policy loads</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions  loads</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions loads</t>
+  </si>
+  <si>
+    <t>Click on 'Go to quizzes statistics'</t>
+  </si>
+  <si>
+    <t>Quiz statistic loads</t>
+  </si>
+  <si>
+    <t>Go to Quiz statistics
+(Quiz done already)</t>
+  </si>
+  <si>
+    <t>Go to Quiz statistics
+(Quiz not done)</t>
+  </si>
+  <si>
+    <t>Quiz statistic loads with 
+empty results</t>
+  </si>
+  <si>
+    <t>Change UI language</t>
+  </si>
+  <si>
+    <t>Popup appear with UI 
+languages available</t>
+  </si>
+  <si>
+    <t>UI language - English</t>
+  </si>
+  <si>
+    <t>UI language - Russian</t>
+  </si>
+  <si>
+    <t>UI language - Hindi</t>
+  </si>
+  <si>
+    <t>Ui changed to English</t>
+  </si>
+  <si>
+    <t>Ui changed to Russian</t>
+  </si>
+  <si>
+    <t>Ui changed to Hindi</t>
+  </si>
+  <si>
+    <t>Change Dictionary language</t>
+  </si>
+  <si>
+    <t>Dictionary language - English</t>
+  </si>
+  <si>
+    <t>Dictionary language - Russian</t>
+  </si>
+  <si>
+    <t>Dictionary language - Hindi</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change UI language'</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change UI language'. Select English.</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change UI language'. Select Russian.</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change UI language'. Select Hindi.</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change Dictionary language'</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change dictionary language'. Select English.</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change dictionary language'. Select Russian.</t>
+  </si>
+  <si>
+    <t>Click on settings. Click 'Change dictionary language'. Select Hindi.</t>
+  </si>
+  <si>
+    <t>Popup appear with Dictionary languages available</t>
+  </si>
+  <si>
+    <t>Dictionary changed to English</t>
+  </si>
+  <si>
+    <t>Dictionary changed to Russian</t>
+  </si>
+  <si>
+    <t>Dictionary changed to Hindi</t>
+  </si>
+  <si>
+    <t>Change theme</t>
+  </si>
+  <si>
+    <t>Change theme - Theme 1</t>
+  </si>
+  <si>
+    <t>Change theme - Theme 2</t>
+  </si>
+  <si>
+    <t>Change theme - Contrast 1</t>
+  </si>
+  <si>
+    <t>Change theme - Contrast 2</t>
+  </si>
+  <si>
+    <t>Click on Settings. Click 'Change theme'</t>
+  </si>
+  <si>
+    <t>Click on Settings. Click 'Change theme'. Click Theme 1.</t>
+  </si>
+  <si>
+    <t>Click on Settings. Click 'Change theme'. Click Theme 2.</t>
+  </si>
+  <si>
+    <t>Click on Settings. Click 'Change theme'. Click Contrast 1.</t>
+  </si>
+  <si>
+    <t>Click on Settings. Click 'Change theme'. Click Contra 2.st 1.</t>
+  </si>
+  <si>
+    <t>Popup appear with Themes available</t>
+  </si>
+  <si>
+    <t>Theme changed as required</t>
+  </si>
+  <si>
+    <t>Change font size</t>
+  </si>
+  <si>
+    <t>Click on Settings. Click Font size.</t>
+  </si>
+  <si>
+    <t>Font panel loads</t>
+  </si>
+  <si>
+    <t>Accesibility features</t>
+  </si>
+  <si>
+    <t>Click Camera button in the the vocubalary section. Scan the text to be searched.</t>
+  </si>
+  <si>
+    <t>Click microphone button in the vocabulary section. Speak the word to be searched.</t>
+  </si>
+  <si>
+    <t>Spoken word appears in 
+search term.</t>
+  </si>
+  <si>
+    <t>Scanned word appear in Search.</t>
+  </si>
+  <si>
+    <t>UI interface</t>
+  </si>
+  <si>
+    <t>The list is scrollable.</t>
+  </si>
+  <si>
+    <t>Final score calculated is
+right</t>
+  </si>
+  <si>
+    <t>The option should respond as
+ programmed</t>
+  </si>
+  <si>
+    <t>The option should not respond</t>
+  </si>
+  <si>
+    <t>The option didn’t respond</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change email'. Input info in the fields in form. 
+Password input is correct.</t>
+  </si>
+  <si>
+    <t>Start the quiz, Answer the Question by pressing microphone button.</t>
+  </si>
+  <si>
+    <t>Spoken word appears in 
+textfield</t>
+  </si>
+  <si>
+    <t>App reads the text aloud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UI interface </t>
+  </si>
+  <si>
+    <t>Permissions</t>
+  </si>
+  <si>
+    <t>App asks for permission to 
+acess hardware</t>
+  </si>
+  <si>
+    <t>Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click camera button in the the vocubalary section. </t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Install app</t>
+  </si>
+  <si>
+    <t>User already exists on server &amp; 
+the form is filled with valid entries</t>
+  </si>
+  <si>
+    <t>All fields in the registration form are valid.
+Register button is pressed.</t>
+  </si>
+  <si>
+    <t>User doesn’t exist on server &amp; 
+the form is filled with valid entries</t>
+  </si>
+  <si>
+    <t>Password is invalid</t>
+  </si>
+  <si>
+    <t>Signup successful</t>
+  </si>
+  <si>
+    <t>Username is shorter than MIN_USERNAME_LENGTH. Rest of the entries are valid. Press sign up button.</t>
+  </si>
+  <si>
+    <t>Password is shorter than MIN_PASSWORD_LENGTH. Rest of the entries are valid. Press sign up button.</t>
+  </si>
+  <si>
+    <t>Signed in successfully</t>
+  </si>
+  <si>
+    <t>Passwords do not match</t>
+  </si>
+  <si>
+    <t>Username and password fields are not empty (Password fields do not match)</t>
+  </si>
+  <si>
+    <t>username="Sergii",
+password="12345",
+confirmed password="12345"</t>
+  </si>
+  <si>
+    <t>username="",
+password="",
+confirmed password=""</t>
+  </si>
+  <si>
+    <t>username="Brahmpreet",
+password="abc",
+confirmed password="abc"</t>
+  </si>
+  <si>
+    <t>Valid username and new password</t>
+  </si>
+  <si>
+    <t>User is logged in</t>
+  </si>
+  <si>
+    <t>User is logged in. At least one category exists</t>
+  </si>
+  <si>
+    <t>A categoty gets created</t>
+  </si>
+  <si>
+    <t>Create Category without name</t>
+  </si>
+  <si>
+    <t>Create Category cancellation</t>
+  </si>
+  <si>
+    <t>Long press Created category. Input new name in the 'Rename category' in the input field. And click 'Rename'.</t>
+  </si>
+  <si>
+    <t>Long press Created category. Input new name in the 'Rename category' in the input field. And click 'Cancel'.</t>
+  </si>
+  <si>
+    <t>Rename Category cancellation</t>
+  </si>
+  <si>
+    <t>Rename Category as existing</t>
+  </si>
+  <si>
+    <t>Long press Created category.  Input new name in the 'Rename category' in the input field that is equal to existing one.</t>
+  </si>
+  <si>
+    <t>Category doesn’t get renamed</t>
+  </si>
+  <si>
+    <t>User is logged in. Category Red exists.</t>
+  </si>
+  <si>
+    <t>User is registered. Server is running.</t>
+  </si>
+  <si>
+    <t>All the categories show up</t>
+  </si>
+  <si>
+    <t>Click 'Categories' tab</t>
+  </si>
+  <si>
+    <t>Search a word in the vocabulary tab. Long press the searched word from the list of recent searched words. Assign the word to chosen category and click select.</t>
+  </si>
+  <si>
+    <t>User is logged in. At least two categories exist and one is assigned to the word</t>
+  </si>
+  <si>
+    <t>Assign multiple categories to 
+the word</t>
+  </si>
+  <si>
+    <t>User is logged in. At least two categories exist</t>
+  </si>
+  <si>
+    <t>User is logged in. At least one category exists and assigned to a word</t>
+  </si>
+  <si>
+    <t>User is logged in. At least two words exist in the list</t>
+  </si>
+  <si>
+    <t>Filtration list is properly populated in the filter list</t>
+  </si>
+  <si>
+    <t>No category with same name in CAPS</t>
+  </si>
+  <si>
+    <t>Load splash screen</t>
+  </si>
+  <si>
+    <t>Delete a word</t>
+  </si>
+  <si>
+    <t>User is logged in. There is at least one word in search list</t>
+  </si>
+  <si>
+    <t>The word swiped is deleted</t>
+  </si>
+  <si>
+    <t>Save  vocubalary of searched words
+along with categories in local database</t>
+  </si>
+  <si>
+    <t>Delete database</t>
+  </si>
+  <si>
+    <t>Restore words and categories lists from local database</t>
+  </si>
+  <si>
+    <t>Lists are loaded from
+local database</t>
+  </si>
+  <si>
+    <t>Lists are saved to 
+local database</t>
+  </si>
+  <si>
+    <t>Lists are saved to
+local database</t>
+  </si>
+  <si>
+    <t>Database is deleted</t>
+  </si>
+  <si>
+    <t>Click Legal icon</t>
+  </si>
+  <si>
+    <t>Launch the app</t>
+  </si>
+  <si>
+    <t>Go to settings. Click on Save</t>
+  </si>
+  <si>
+    <t>Go to settings. Click on Restore</t>
+  </si>
+  <si>
+    <t>Go to settings. Click on Clear</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change name and surname'. Input info in the fields in form. Password input is correct.</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change name and surname'. Input info in the fields in form. Password input is incorrect.</t>
+  </si>
+  <si>
+    <t>New first name="Brahmpreet", New last name="singh", Current password="12345"</t>
+  </si>
+  <si>
+    <t>New first name="Brahmpreet", New last name="singh", Current password="123"</t>
+  </si>
+  <si>
+    <t>Email updated</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change password'. Input info in the fields in form. Password input is correct.</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change password'. Input info in the fields in form. Password input is incorrect.</t>
+  </si>
+  <si>
+    <t>Click settings icon. Select 'Change password'. Input info in the fields in form. New Password input is incorrect.</t>
+  </si>
+  <si>
+    <t>Current password="12", New password="56789", Repeat Password="56789"</t>
+  </si>
+  <si>
+    <t>Current password="12", New password="5",  Repeat Password="5"</t>
+  </si>
+  <si>
+    <t>Start a Quiz with no words in the list</t>
+  </si>
+  <si>
+    <t>There are no words in the list</t>
+  </si>
+  <si>
+    <t>Click "Start the quiz". Press Select button with or without category selected.</t>
+  </si>
+  <si>
+    <t>A toast appears stating a 
+requirement that atleast one word must exist</t>
+  </si>
+  <si>
+    <t>Start a Quiz with all words</t>
+  </si>
+  <si>
+    <t>There is at least one word in the list. It belongs to a category</t>
+  </si>
+  <si>
+    <t>Click "Start the quiz". Select category and press select button.</t>
+  </si>
+  <si>
+    <t>There is at least one word in the list. It does not belong to a category</t>
+  </si>
+  <si>
+    <t>Click "Start the quiz". Select no categories and press select button.</t>
+  </si>
+  <si>
+    <t>Press cancel in the popup of categories selection</t>
+  </si>
+  <si>
+    <t>Welcome screen</t>
+  </si>
+  <si>
+    <t>How to use at launch</t>
+  </si>
+  <si>
+    <t>User signed in &amp; at least one quiz is finished</t>
+  </si>
+  <si>
+    <t>User signed in &amp; at no quiz is finished</t>
+  </si>
+  <si>
+    <t>Quiz statistics</t>
+  </si>
+  <si>
+    <t>Quiz finished</t>
+  </si>
+  <si>
+    <t>Statistics page is shown</t>
+  </si>
+  <si>
+    <t>The list is scrollable</t>
+  </si>
+  <si>
+    <t>User signed in</t>
+  </si>
+  <si>
+    <t>Open settings. Click any option outside the wording</t>
+  </si>
+  <si>
+    <t>Open settings. Click any option on the wording</t>
+  </si>
+  <si>
+    <t>Word card TTS start</t>
+  </si>
+  <si>
+    <t>Word card TTS stop</t>
+  </si>
+  <si>
+    <t>Click speaker button in the word card when it's not pronouncing</t>
+  </si>
+  <si>
+    <t>Click stop button in the word card when it's pronouncing</t>
+  </si>
+  <si>
+    <t>Stop pronouncing</t>
+  </si>
+  <si>
+    <t>Text pronounced by app</t>
+  </si>
+  <si>
+    <t>Scrollable view in words list</t>
+  </si>
+  <si>
+    <t>Scrollable view in categories list</t>
+  </si>
+  <si>
+    <t>Scrollable view in categories popup</t>
+  </si>
+  <si>
+    <t>Terms and conditions</t>
+  </si>
+  <si>
+    <t>How to use</t>
+  </si>
+  <si>
+    <t>Privacy policy</t>
+  </si>
+  <si>
+    <t>Microphone input in search</t>
+  </si>
+  <si>
+    <t>Image input in search</t>
+  </si>
+  <si>
+    <t>Microphone input in quiz</t>
+  </si>
+  <si>
+    <t>Quiz TTS start</t>
+  </si>
+  <si>
+    <t>Quiz TTS stop</t>
+  </si>
+  <si>
+    <t>Click stop button in the quiz when it's pronouncing</t>
+  </si>
+  <si>
+    <t>Click speaker button in the quiz when it's not pronouncing</t>
+  </si>
+  <si>
+    <t>No Internet on device or server is not running</t>
+  </si>
+  <si>
+    <t>Server is running</t>
+  </si>
+  <si>
+    <t>Words list</t>
+  </si>
+  <si>
+    <t>Settings: Database</t>
+  </si>
+  <si>
+    <t>Settings: Account</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Clisk Settings button (gear)</t>
+  </si>
+  <si>
+    <t>Click Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Click Send feedback</t>
+  </si>
+  <si>
+    <t>Click How to use</t>
+  </si>
+  <si>
+    <t>Settings page is opened</t>
+  </si>
+  <si>
+    <t>Settings: Statistics</t>
+  </si>
+  <si>
+    <t>Settings: UI</t>
+  </si>
+  <si>
+    <t>Search at least 10 words so that they fill the screen. Scroll the list</t>
+  </si>
+  <si>
+    <t>Create 10 categories. Scroll the list</t>
+  </si>
+  <si>
+    <t>Create 10 categories. Long press on the word to envoke categories popup. Scroll the list</t>
+  </si>
+  <si>
+    <t>Button clicked inside bounds</t>
+  </si>
+  <si>
+    <t>Button not clicked outside bounds</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,8 +1266,16 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +1288,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -217,21 +1303,50 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -239,9 +1354,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -299,7 +1417,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -334,7 +1452,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,210 +1637,2975 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="80" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="29.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="B22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="I22" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I33" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="I40" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="I63" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="I64" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I65" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I66" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I67" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I70" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I71" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="I74" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I75" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I76" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I77" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="I79" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="I80" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="I83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I84" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="I85" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I86" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I87" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I88" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I89" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>91</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="5">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="5">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="I95" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="5">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I96" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="5">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="5">
+        <v>97</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I98" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="5">
+        <v>98</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="5">
+        <v>99</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H100" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I100" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="5">
+        <v>100</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="H101" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="5">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="H102" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I102" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H103" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I103" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I104" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="5">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H105" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
+  <mergeCells count="3">
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="A107:C107"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Test cases.xlsx
+++ b/docs/Test cases.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="361">
   <si>
     <t>ID</t>
   </si>
@@ -265,20 +265,12 @@
     <t>Category name=""</t>
   </si>
   <si>
-    <t xml:space="preserve">A popup appears. On 
-clicking Delete, the category gets deleted.  </t>
-  </si>
-  <si>
     <t>Swipe left or right the created category. Click 'Delete' in the toast that appears on screen.</t>
   </si>
   <si>
     <t>Category name="Red"</t>
   </si>
   <si>
-    <t xml:space="preserve">A popup appears. On 
-clicking Rename, the category gets renamed.  </t>
-  </si>
-  <si>
     <t>A Category is not created</t>
   </si>
   <si>
@@ -297,14 +289,6 @@
     <t>Category name="Blue"</t>
   </si>
   <si>
-    <t>Word gets assigned to
- that category.</t>
-  </si>
-  <si>
-    <t>Word gets assigned to
-that category.</t>
-  </si>
-  <si>
     <t>Assign word to category 'Black'</t>
   </si>
   <si>
@@ -323,10 +307,6 @@
     <t>Assign word to category 'Red' &amp; 'Black'</t>
   </si>
   <si>
-    <t>Word gets assigned to
-multiple category.</t>
-  </si>
-  <si>
     <t>Remove word from all categories</t>
   </si>
   <si>
@@ -334,9 +314,6 @@
   </si>
   <si>
     <t>Deselect all categories.</t>
-  </si>
-  <si>
-    <t>Word not assigned to any category.</t>
   </si>
   <si>
     <t>Search multiple words in vocubalary section. Click 'Filter' button.</t>
@@ -398,9 +375,6 @@
     <t>Select category to filter words with.</t>
   </si>
   <si>
-    <t xml:space="preserve">All Categories populated in the filter list. </t>
-  </si>
-  <si>
     <t>Splash screen</t>
   </si>
   <si>
@@ -416,9 +390,6 @@
     <t>Legal page loads.</t>
   </si>
   <si>
-    <t>Splash screen loads.</t>
-  </si>
-  <si>
     <t>Click Help (?) icon</t>
   </si>
   <si>
@@ -440,10 +411,6 @@
     <t>Search term = "Practical"</t>
   </si>
   <si>
-    <t>Recent words get 
-populated in search history.</t>
-  </si>
-  <si>
     <t>Swipe left or right on the words from recent search history</t>
   </si>
   <si>
@@ -451,10 +418,6 @@
   </si>
   <si>
     <t>Click the 'Copy to clipboard' button</t>
-  </si>
-  <si>
-    <t>A toast appears 
-confirming that all words in the search history list have been copied.</t>
   </si>
   <si>
     <t>Search term=""</t>
@@ -491,18 +454,10 @@
     <t>Search term="Theory"</t>
   </si>
   <si>
-    <t>A card with word 
-definition appears &amp; the word doesn’t get populated again.</t>
-  </si>
-  <si>
     <t>No category with same name</t>
   </si>
   <si>
     <t>Create a new category with already existing name</t>
-  </si>
-  <si>
-    <t>A toast appears saying 
-Category already exists.</t>
   </si>
   <si>
     <t>Create a new category with already existing name with Caps ON</t>
@@ -540,23 +495,10 @@
     <t>New email="brahmpreet.official@gmail.com", Current password="12"</t>
   </si>
   <si>
-    <t>Email not updated. 
-Toast with error.</t>
-  </si>
-  <si>
     <t>Current password="12345", New password="56789",
  Repeat Password="56789"</t>
   </si>
   <si>
-    <t>Password changed.</t>
-  </si>
-  <si>
-    <t>Logged out of app session.</t>
-  </si>
-  <si>
-    <t>Account deleted.</t>
-  </si>
-  <si>
     <t>Click settings icon. Select 'Logout'.</t>
   </si>
   <si>
@@ -790,17 +732,7 @@
     <t>Click microphone button in the vocabulary section. Speak the word to be searched.</t>
   </si>
   <si>
-    <t>Spoken word appears in 
-search term.</t>
-  </si>
-  <si>
-    <t>Scanned word appear in Search.</t>
-  </si>
-  <si>
     <t>UI interface</t>
-  </si>
-  <si>
-    <t>The list is scrollable.</t>
   </si>
   <si>
     <t>Final score calculated is
@@ -828,9 +760,6 @@
 textfield</t>
   </si>
   <si>
-    <t>App reads the text aloud.</t>
-  </si>
-  <si>
     <t xml:space="preserve">UI interface </t>
   </si>
   <si>
@@ -842,9 +771,6 @@
   </si>
   <si>
     <t>Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click camera button in the the vocubalary section. </t>
   </si>
   <si>
     <t>Storage</t>
@@ -1229,6 +1155,77 @@
   </si>
   <si>
     <t>Button not clicked outside bounds</t>
+  </si>
+  <si>
+    <t>Splash screen loads</t>
+  </si>
+  <si>
+    <t>Word gets assigned to
+that category</t>
+  </si>
+  <si>
+    <t>Word gets assigned to
+multiple category</t>
+  </si>
+  <si>
+    <t>Word gets assigned to
+ that category</t>
+  </si>
+  <si>
+    <t>Word not assigned to any category</t>
+  </si>
+  <si>
+    <t>All Categories populated in the filter list</t>
+  </si>
+  <si>
+    <t>Recent words get 
+populated in search history</t>
+  </si>
+  <si>
+    <t>A popup appears. On 
+clicking Rename, the category gets renamed</t>
+  </si>
+  <si>
+    <t>A popup appears. On 
+clicking Delete, the category gets deleted</t>
+  </si>
+  <si>
+    <t>A toast appears saying 
+Category already exists</t>
+  </si>
+  <si>
+    <t>A toast appears 
+confirming that all words in the search history list have been copied</t>
+  </si>
+  <si>
+    <t>A card with word 
+definition appears &amp; the word doesn’t get populated again</t>
+  </si>
+  <si>
+    <t>Password changed</t>
+  </si>
+  <si>
+    <t>Email not updated. 
+Toast with error shown</t>
+  </si>
+  <si>
+    <t>Logged out of app session</t>
+  </si>
+  <si>
+    <t>Account deleted</t>
+  </si>
+  <si>
+    <t>Scanned word appear in Search</t>
+  </si>
+  <si>
+    <t>Spoken word appears in 
+search field</t>
+  </si>
+  <si>
+    <t>App reads the text aloud</t>
+  </si>
+  <si>
+    <t>Click camera button in the the vocubalary section</t>
   </si>
 </sst>
 </file>
@@ -1640,8 +1637,8 @@
   <dimension ref="A1:I109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D110" sqref="D110"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1691,21 +1688,21 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>105</v>
+        <v>341</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>105</v>
+        <v>341</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>11</v>
@@ -1716,21 +1713,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>290</v>
+        <v>269</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="I3" s="4" t="s">
         <v>11</v>
@@ -1747,7 +1744,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
@@ -1773,13 +1770,13 @@
         <v>36</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>241</v>
+        <v>220</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>38</v>
@@ -1802,22 +1799,22 @@
         <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>11</v>
@@ -1831,10 +1828,10 @@
         <v>36</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>30</v>
@@ -1863,10 +1860,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
@@ -1892,7 +1889,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>344</v>
+        <v>323</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>31</v>
@@ -1921,10 +1918,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>43</v>
@@ -1950,7 +1947,7 @@
         <v>14</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>12</v>
@@ -1979,7 +1976,7 @@
         <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>13</v>
@@ -1988,10 +1985,10 @@
         <v>26</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>11</v>
@@ -2008,7 +2005,7 @@
         <v>28</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>13</v>
@@ -2037,7 +2034,7 @@
         <v>16</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>20</v>
@@ -2066,7 +2063,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -2095,7 +2092,7 @@
         <v>23</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>24</v>
@@ -2104,10 +2101,10 @@
         <v>34</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>11</v>
@@ -2124,13 +2121,13 @@
         <v>14</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>10</v>
@@ -2153,13 +2150,13 @@
         <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>10</v>
@@ -2179,13 +2176,13 @@
         <v>42</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>47</v>
@@ -2211,13 +2208,13 @@
         <v>44</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>48</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>10</v>
@@ -2240,7 +2237,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>46</v>
@@ -2266,10 +2263,10 @@
         <v>42</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>50</v>
@@ -2292,25 +2289,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>11</v>
@@ -2321,25 +2318,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>56</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>69</v>
+        <v>344</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>11</v>
@@ -2350,25 +2347,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>70</v>
+        <v>342</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>11</v>
@@ -2379,25 +2376,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>272</v>
+        <v>251</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>273</v>
+        <v>252</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>11</v>
@@ -2408,25 +2405,25 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>274</v>
+        <v>253</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>11</v>
@@ -2437,25 +2434,25 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F28" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="G28" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>11</v>
@@ -2466,25 +2463,25 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>11</v>
@@ -2495,25 +2492,25 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>95</v>
-      </c>
       <c r="G30" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>11</v>
@@ -2524,25 +2521,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>11</v>
@@ -2553,25 +2550,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="G32" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>11</v>
@@ -2582,23 +2579,23 @@
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>99</v>
+        <v>346</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>11</v>
@@ -2609,25 +2606,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>113</v>
+        <v>347</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>11</v>
@@ -2638,23 +2635,23 @@
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>279</v>
+        <v>258</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>11</v>
@@ -2665,23 +2662,23 @@
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>117</v>
+        <v>351</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>11</v>
@@ -2692,25 +2689,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="I37" s="4" t="s">
         <v>11</v>
@@ -2721,23 +2718,23 @@
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I38" s="4" t="s">
         <v>11</v>
@@ -2748,25 +2745,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>346</v>
+        <v>325</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>280</v>
+        <v>259</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>128</v>
+        <v>352</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>11</v>
@@ -2783,19 +2780,19 @@
         <v>52</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>11</v>
@@ -2809,13 +2806,13 @@
         <v>51</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>58</v>
@@ -2838,22 +2835,22 @@
         <v>51</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I42" s="4" t="s">
         <v>11</v>
@@ -2867,22 +2864,22 @@
         <v>51</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>57</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="I43" s="4" t="s">
         <v>11</v>
@@ -2896,22 +2893,22 @@
         <v>51</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>277</v>
+        <v>256</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>131</v>
+        <v>350</v>
       </c>
       <c r="I44" s="4" t="s">
         <v>11</v>
@@ -2928,17 +2925,17 @@
         <v>53</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4" t="s">
-        <v>59</v>
+        <v>349</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>59</v>
+        <v>349</v>
       </c>
       <c r="I45" s="4" t="s">
         <v>11</v>
@@ -2955,19 +2952,19 @@
         <v>54</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>11</v>
@@ -2981,22 +2978,22 @@
         <v>51</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>11</v>
@@ -3010,16 +3007,16 @@
         <v>51</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>10</v>
@@ -3042,17 +3039,17 @@
         <v>55</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="I49" s="4" t="s">
         <v>11</v>
@@ -3063,23 +3060,23 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>304</v>
+        <v>283</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>11</v>
@@ -3090,23 +3087,23 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>11</v>
@@ -3117,23 +3114,23 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>11</v>
@@ -3144,23 +3141,23 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>11</v>
@@ -3171,23 +3168,23 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>11</v>
@@ -3198,23 +3195,23 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>313</v>
+        <v>292</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>11</v>
@@ -3225,21 +3222,21 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>11</v>
@@ -3250,23 +3247,23 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>11</v>
@@ -3277,23 +3274,23 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>353</v>
+        <v>332</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>11</v>
@@ -3304,23 +3301,23 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>352</v>
+        <v>331</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>11</v>
@@ -3331,23 +3328,23 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>289</v>
+        <v>268</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>11</v>
@@ -3358,23 +3355,23 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>336</v>
+        <v>315</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>11</v>
@@ -3385,23 +3382,23 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>351</v>
+        <v>330</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>11</v>
@@ -3412,23 +3409,23 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>350</v>
+        <v>329</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>354</v>
+        <v>333</v>
       </c>
       <c r="I63" s="4" t="s">
         <v>11</v>
@@ -3439,23 +3436,23 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>282</v>
+        <v>261</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>291</v>
+        <v>270</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>11</v>
@@ -3466,23 +3463,23 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>284</v>
+        <v>263</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>292</v>
+        <v>271</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>285</v>
+        <v>264</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>11</v>
@@ -3493,23 +3490,23 @@
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>347</v>
+        <v>326</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>283</v>
+        <v>262</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>11</v>
@@ -3520,25 +3517,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>294</v>
+        <v>273</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>296</v>
+        <v>275</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>11</v>
@@ -3549,19 +3546,19 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>297</v>
+        <v>276</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>10</v>
@@ -3578,25 +3575,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="I69" s="4" t="s">
         <v>11</v>
@@ -3607,25 +3604,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>143</v>
+        <v>354</v>
       </c>
       <c r="I70" s="4" t="s">
         <v>11</v>
@@ -3636,25 +3633,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>299</v>
+        <v>278</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>145</v>
+        <v>353</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>145</v>
+        <v>353</v>
       </c>
       <c r="I71" s="4" t="s">
         <v>11</v>
@@ -3665,19 +3662,19 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>300</v>
+        <v>279</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>302</v>
+        <v>281</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>10</v>
@@ -3694,19 +3691,19 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>301</v>
+        <v>280</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>303</v>
+        <v>282</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>10</v>
@@ -3723,23 +3720,23 @@
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="F74" s="4"/>
       <c r="G74" s="4" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>146</v>
+        <v>355</v>
       </c>
       <c r="I74" s="4" t="s">
         <v>11</v>
@@ -3750,23 +3747,23 @@
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>348</v>
+        <v>327</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F75" s="4"/>
       <c r="G75" s="4" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>147</v>
+        <v>356</v>
       </c>
       <c r="I75" s="4" t="s">
         <v>11</v>
@@ -3777,23 +3774,23 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F76" s="4"/>
       <c r="G76" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="I76" s="4" t="s">
         <v>11</v>
@@ -3804,23 +3801,23 @@
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="F77" s="4"/>
       <c r="G77" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="I77" s="4" t="s">
         <v>11</v>
@@ -3831,23 +3828,23 @@
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="I78" s="4" t="s">
         <v>11</v>
@@ -3858,23 +3855,23 @@
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="F79" s="4"/>
       <c r="G79" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="I79" s="4" t="s">
         <v>11</v>
@@ -3885,23 +3882,23 @@
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F80" s="4"/>
       <c r="G80" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>11</v>
@@ -3912,23 +3909,23 @@
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="F81" s="4"/>
       <c r="G81" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="I81" s="4" t="s">
         <v>11</v>
@@ -3939,20 +3936,20 @@
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="F82" s="4"/>
       <c r="G82" s="4" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="4" t="s">
@@ -3964,23 +3961,23 @@
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="F83" s="4"/>
       <c r="G83" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="I83" s="4" t="s">
         <v>11</v>
@@ -3991,23 +3988,23 @@
         <v>83</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="F84" s="4"/>
       <c r="G84" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="I84" s="4" t="s">
         <v>11</v>
@@ -4018,23 +4015,23 @@
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="F85" s="4"/>
       <c r="G85" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="I85" s="4" t="s">
         <v>11</v>
@@ -4045,23 +4042,23 @@
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="I86" s="4" t="s">
         <v>11</v>
@@ -4072,23 +4069,23 @@
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F87" s="4"/>
       <c r="G87" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>11</v>
@@ -4099,23 +4096,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F88" s="4"/>
       <c r="G88" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>11</v>
@@ -4126,23 +4123,23 @@
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F89" s="4"/>
       <c r="G89" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>11</v>
@@ -4153,23 +4150,23 @@
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F90" s="4"/>
       <c r="G90" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>11</v>
@@ -4180,23 +4177,23 @@
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>356</v>
+        <v>335</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="F91" s="4"/>
       <c r="G91" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>11</v>
@@ -4207,23 +4204,23 @@
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>337</v>
+        <v>316</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F92" s="4"/>
       <c r="G92" s="4" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>222</v>
+        <v>358</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>11</v>
@@ -4234,23 +4231,23 @@
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="F93" s="4"/>
       <c r="G93" s="4" t="s">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>223</v>
+        <v>357</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>11</v>
@@ -4261,23 +4258,23 @@
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="F94" s="4"/>
       <c r="G94" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>330</v>
+        <v>309</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>11</v>
@@ -4288,23 +4285,23 @@
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>328</v>
+        <v>307</v>
       </c>
       <c r="F95" s="4"/>
       <c r="G95" s="4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>11</v>
@@ -4315,23 +4312,23 @@
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>339</v>
+        <v>318</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="F96" s="4"/>
       <c r="G96" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>11</v>
@@ -4342,23 +4339,23 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>340</v>
+        <v>319</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>343</v>
+        <v>322</v>
       </c>
       <c r="F97" s="4"/>
       <c r="G97" s="4" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>11</v>
@@ -4369,23 +4366,23 @@
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>341</v>
+        <v>320</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>342</v>
+        <v>321</v>
       </c>
       <c r="F98" s="4"/>
       <c r="G98" s="4" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="I98" s="4" t="s">
         <v>11</v>
@@ -4396,23 +4393,23 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="F99" s="4"/>
       <c r="G99" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="I99" s="4" t="s">
         <v>11</v>
@@ -4423,23 +4420,23 @@
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>358</v>
+        <v>337</v>
       </c>
       <c r="F100" s="4"/>
       <c r="G100" s="4" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>11</v>
@@ -4450,23 +4447,23 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>333</v>
+        <v>312</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>359</v>
+        <v>338</v>
       </c>
       <c r="F101" s="4"/>
       <c r="G101" s="4" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>225</v>
+        <v>300</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>11</v>
@@ -4477,23 +4474,23 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>360</v>
+        <v>339</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="F102" s="4"/>
       <c r="G102" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>11</v>
@@ -4504,23 +4501,23 @@
         <v>102</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="F103" s="4"/>
       <c r="G103" s="4" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>11</v>
@@ -4531,23 +4528,23 @@
         <v>103</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>237</v>
+        <v>217</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="F104" s="4"/>
       <c r="G104" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>11</v>
@@ -4558,23 +4555,23 @@
         <v>104</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="F105" s="4"/>
       <c r="G105" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>236</v>
+        <v>216</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>11</v>
